--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63270.87509976065</v>
+        <v>55108.21568324867</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11574767.56599373</v>
+        <v>11574767.56599372</v>
       </c>
     </row>
     <row r="9">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.8891084057988</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>119.08391054246</v>
+        <v>104.8891084058</v>
       </c>
       <c r="X8" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
     </row>
     <row r="9">
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>48.2475662645471</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809193</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.08391054246</v>
+        <v>112.5524661101891</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="V10" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>46.05514816323256</v>
+        <v>46.05514816323311</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>157.030438878309</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>192.9620310498021</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>120.0908620689655</v>
+        <v>120.0908620689646</v>
       </c>
       <c r="C12" t="n">
         <v>105.3918965517241</v>
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X12" t="n">
-        <v>153.3187614035093</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y12" t="n">
         <v>125.2209214285714</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>43.66787455194785</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>12.99065215615372</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>176.0867819309705</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>401.5266111030784</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306968</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426295</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>62.68518209900617</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>72.02381877900552</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>405.9807499667405</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>175.1548552135511</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.104912620080278</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>17.62188142637133</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>217.0028616587194</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>179.1735387309194</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>64.65234145753891</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>1.104912620080293</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2326,16 +2326,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>204.0461120219742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>109.5540470185014</v>
       </c>
     </row>
     <row r="24">
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>112.8460249915277</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>31.40208394875347</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>176.3796465021816</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>321.9370827829817</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>157.0983695538478</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>36.79852016673944</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -2857,10 +2857,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>368.3387093144427</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>361.464905015728</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>5.033780699103863</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>12.64051874898283</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>149.6157531058523</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>156.7012890994286</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>155.972925266962</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>119.4890612089274</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>137.5415024231758</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3274,13 +3274,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>222.0215175726363</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.39993757081376</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>176.0448961179416</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3514,10 +3514,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>170.1167790360032</v>
       </c>
       <c r="G38" t="n">
-        <v>321.9370827829813</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>62.03117372862052</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.2086277739016</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>189.6554371447631</v>
+        <v>28.54711041252027</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.4279550522317</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>98.83048272719643</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>275.1106372348596</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>109.5540470185018</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>100.013319286585</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>5.033780699103743</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.526712843396805</v>
+        <v>250.1002694948341</v>
       </c>
       <c r="C8" t="n">
-        <v>9.526712843396805</v>
+        <v>250.1002694948341</v>
       </c>
       <c r="D8" t="n">
-        <v>9.526712843396805</v>
+        <v>129.8134911691155</v>
       </c>
       <c r="E8" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585548</v>
+        <v>23.57954741585574</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306557987</v>
+        <v>55.41632306558044</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318062</v>
+        <v>103.1313969318073</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183083</v>
+        <v>162.32616531831</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590914</v>
+        <v>228.1917507590939</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326559</v>
+        <v>295.1231102326591</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336397</v>
+        <v>358.3244950336437</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455639</v>
+        <v>412.2654147455685</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990244979</v>
+        <v>452.772799024503</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698402</v>
+        <v>476.3356421698456</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698402</v>
+        <v>476.3356421698456</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698402</v>
+        <v>476.3356421698456</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698402</v>
+        <v>476.3356421698456</v>
       </c>
       <c r="V8" t="n">
-        <v>356.0488638441229</v>
+        <v>476.3356421698456</v>
       </c>
       <c r="W8" t="n">
-        <v>235.7620855184057</v>
+        <v>370.3870478205527</v>
       </c>
       <c r="X8" t="n">
-        <v>115.4753071926885</v>
+        <v>370.3870478205527</v>
       </c>
       <c r="Y8" t="n">
-        <v>115.4753071926885</v>
+        <v>250.1002694948341</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98.01958307838572</v>
+        <v>104.6170016968437</v>
       </c>
       <c r="C9" t="n">
-        <v>98.01958307838572</v>
+        <v>104.6170016968437</v>
       </c>
       <c r="D9" t="n">
-        <v>98.01958307838572</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="E9" t="n">
-        <v>98.01958307838572</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="F9" t="n">
-        <v>49.28466765965128</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="G9" t="n">
-        <v>49.28466765965128</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114671</v>
+        <v>16.4367847511469</v>
       </c>
       <c r="J9" t="n">
-        <v>35.39855022437482</v>
+        <v>35.39855022437523</v>
       </c>
       <c r="K9" t="n">
-        <v>67.80722760369051</v>
+        <v>67.8072276036913</v>
       </c>
       <c r="L9" t="n">
-        <v>111.3846938193795</v>
+        <v>111.3846938193808</v>
       </c>
       <c r="M9" t="n">
-        <v>162.2375414767951</v>
+        <v>162.2375414767969</v>
       </c>
       <c r="N9" t="n">
-        <v>214.4363126943316</v>
+        <v>214.436312694334</v>
       </c>
       <c r="O9" t="n">
-        <v>262.1879905006639</v>
+        <v>262.1879905006669</v>
       </c>
       <c r="P9" t="n">
-        <v>300.5129218025257</v>
+        <v>300.5129218025292</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.1321234335007</v>
+        <v>326.1321234335044</v>
       </c>
       <c r="R9" t="n">
-        <v>338.5931397298202</v>
+        <v>338.593139729824</v>
       </c>
       <c r="S9" t="n">
-        <v>338.5931397298202</v>
+        <v>338.593139729824</v>
       </c>
       <c r="T9" t="n">
-        <v>338.5931397298202</v>
+        <v>338.593139729824</v>
       </c>
       <c r="U9" t="n">
-        <v>218.3063614041029</v>
+        <v>338.593139729824</v>
       </c>
       <c r="V9" t="n">
-        <v>98.01958307838572</v>
+        <v>224.9037800225622</v>
       </c>
       <c r="W9" t="n">
-        <v>98.01958307838572</v>
+        <v>104.6170016968437</v>
       </c>
       <c r="X9" t="n">
-        <v>98.01958307838572</v>
+        <v>104.6170016968437</v>
       </c>
       <c r="Y9" t="n">
-        <v>98.01958307838572</v>
+        <v>104.6170016968437</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="J10" t="n">
-        <v>21.42271513642495</v>
+        <v>21.42271513642519</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97150121137668</v>
+        <v>40.97150121137715</v>
       </c>
       <c r="L10" t="n">
-        <v>65.98721697583369</v>
+        <v>65.98721697583444</v>
       </c>
       <c r="M10" t="n">
-        <v>92.36278178728853</v>
+        <v>92.36278178728958</v>
       </c>
       <c r="N10" t="n">
-        <v>118.111194619813</v>
+        <v>118.1111946198143</v>
       </c>
       <c r="O10" t="n">
-        <v>141.8940213720313</v>
+        <v>141.8940213720329</v>
       </c>
       <c r="P10" t="n">
-        <v>162.2443382688355</v>
+        <v>162.2443382688373</v>
       </c>
       <c r="Q10" t="n">
-        <v>176.3338428491469</v>
+        <v>176.3338428491489</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3338428491469</v>
+        <v>176.3338428491489</v>
       </c>
       <c r="S10" t="n">
-        <v>176.3338428491469</v>
+        <v>176.3338428491489</v>
       </c>
       <c r="T10" t="n">
-        <v>176.3338428491469</v>
+        <v>176.3338428491489</v>
       </c>
       <c r="U10" t="n">
-        <v>176.3338428491469</v>
+        <v>56.04706452343035</v>
       </c>
       <c r="V10" t="n">
-        <v>56.0470645234297</v>
+        <v>56.04706452343035</v>
       </c>
       <c r="W10" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="X10" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.526712843396805</v>
+        <v>9.526712843396911</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1337.186882365126</v>
+        <v>1111.802223690763</v>
       </c>
       <c r="C11" t="n">
-        <v>1337.186882365126</v>
+        <v>1111.802223690763</v>
       </c>
       <c r="D11" t="n">
-        <v>1178.570277437541</v>
+        <v>675.8924388652072</v>
       </c>
       <c r="E11" t="n">
-        <v>744.7955325958366</v>
+        <v>242.1176940235023</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
         <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V11" t="n">
-        <v>1745.473006065473</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W11" t="n">
-        <v>1745.473006065473</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X11" t="n">
-        <v>1745.473006065473</v>
+        <v>1538.10179417567</v>
       </c>
       <c r="Y11" t="n">
-        <v>1337.186882365126</v>
+        <v>1538.10179417567</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>930.5806015906849</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>847.1967632068465</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>762.8256627965034</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>730.8830127630996</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J12" t="n">
-        <v>858.9930882810428</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K12" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M12" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N12" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R12" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233591</v>
       </c>
       <c r="S12" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633325</v>
       </c>
       <c r="T12" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508978</v>
       </c>
       <c r="U12" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.668693332859</v>
       </c>
       <c r="V12" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394858</v>
       </c>
       <c r="W12" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280523</v>
       </c>
       <c r="X12" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669323</v>
       </c>
       <c r="Y12" t="n">
-        <v>1347.551667360299</v>
+        <v>663.875206146153</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>425.8146998795858</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C13" t="n">
-        <v>381.7057356856991</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D13" t="n">
-        <v>381.7057356856991</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E13" t="n">
-        <v>211.9477319364363</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M13" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N13" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O13" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271744</v>
       </c>
       <c r="P13" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048579</v>
       </c>
       <c r="Q13" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355135</v>
       </c>
       <c r="R13" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="S13" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="T13" t="n">
-        <v>889.6597230122813</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="U13" t="n">
-        <v>889.6597230122813</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="V13" t="n">
-        <v>889.6597230122813</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="W13" t="n">
-        <v>617.6333185985729</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="X13" t="n">
-        <v>617.6333185985729</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="Y13" t="n">
-        <v>617.6333185985729</v>
+        <v>732.1113136517137</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1355.033554032792</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C14" t="n">
-        <v>916.8910812162151</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D14" t="n">
-        <v>480.9812963906596</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U14" t="n">
-        <v>2182.462141153827</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V14" t="n">
-        <v>2182.462141153827</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.462141153827</v>
+        <v>1122.013229783222</v>
       </c>
       <c r="X14" t="n">
-        <v>1763.319677733138</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y14" t="n">
-        <v>1355.033554032792</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q15" t="n">
         <v>1614.947661807679</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2118.080353351143</v>
+        <v>382.8425480966948</v>
       </c>
       <c r="C16" t="n">
-        <v>2118.080353351143</v>
+        <v>382.8425480966948</v>
       </c>
       <c r="D16" t="n">
-        <v>2118.080353351143</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E16" t="n">
-        <v>2054.761987594572</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F16" t="n">
-        <v>1878.054933556328</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G16" t="n">
-        <v>1713.313753168846</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>1580.969692548162</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M16" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N16" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="U16" t="n">
-        <v>2118.080353351143</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="V16" t="n">
-        <v>2118.080353351143</v>
+        <v>574.661166815682</v>
       </c>
       <c r="W16" t="n">
-        <v>2118.080353351143</v>
+        <v>574.661166815682</v>
       </c>
       <c r="X16" t="n">
-        <v>2118.080353351143</v>
+        <v>574.661166815682</v>
       </c>
       <c r="Y16" t="n">
-        <v>2118.080353351143</v>
+        <v>574.661166815682</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>893.1979019974805</v>
+        <v>1485.275513477279</v>
       </c>
       <c r="C17" t="n">
-        <v>483.1163363745102</v>
+        <v>1485.275513477279</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895474</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895474</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867029</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.256885969251</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V17" t="n">
-        <v>1738.639935903077</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W17" t="n">
-        <v>1738.639935903077</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X17" t="n">
-        <v>1319.497472482388</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="Y17" t="n">
-        <v>1319.497472482388</v>
+        <v>1911.575083962186</v>
       </c>
     </row>
     <row r="18">
@@ -5576,28 +5576,28 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
@@ -5609,7 +5609,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>452.6215533787445</v>
+        <v>225.029678940815</v>
       </c>
       <c r="C19" t="n">
-        <v>280.0598418619694</v>
+        <v>225.029678940815</v>
       </c>
       <c r="D19" t="n">
-        <v>280.0598418619694</v>
+        <v>225.029678940815</v>
       </c>
       <c r="E19" t="n">
-        <v>110.3018381127067</v>
+        <v>225.029678940815</v>
       </c>
       <c r="F19" t="n">
-        <v>110.3018381127067</v>
+        <v>48.32262490257116</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
         <v>202.912315818696</v>
@@ -5715,10 +5715,10 @@
         <v>889.6597230122813</v>
       </c>
       <c r="X19" t="n">
-        <v>871.8598427836234</v>
+        <v>644.2679683456938</v>
       </c>
       <c r="Y19" t="n">
-        <v>644.4401720977316</v>
+        <v>416.8482976598021</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1128.043535737734</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C20" t="n">
-        <v>1128.043535737734</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>1128.043535737734</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>694.2687908960293</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>266.401361305237</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G20" t="n">
-        <v>266.401361305237</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867029</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.47212285877</v>
+        <v>2179.344204992262</v>
       </c>
       <c r="X20" t="n">
-        <v>1536.329659438081</v>
+        <v>2179.344204992262</v>
       </c>
       <c r="Y20" t="n">
-        <v>1128.043535737734</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,7 +5837,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
         <v>803.387703298788</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>745.2331845165158</v>
+        <v>225.029678940815</v>
       </c>
       <c r="C22" t="n">
-        <v>679.9277891048604</v>
+        <v>225.029678940815</v>
       </c>
       <c r="D22" t="n">
-        <v>514.0497963063831</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E22" t="n">
-        <v>344.2917925571204</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
         <v>202.912315818696</v>
@@ -5937,25 +5937,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S22" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T22" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U22" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V22" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W22" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X22" t="n">
-        <v>745.2331845165158</v>
+        <v>644.2679683456938</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.2331845165158</v>
+        <v>416.8482976598021</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1526.86868437219</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C23" t="n">
-        <v>1088.726211555613</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D23" t="n">
-        <v>652.8164267300576</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E23" t="n">
-        <v>652.8164267300576</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F23" t="n">
-        <v>652.8164267300576</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G23" t="n">
-        <v>253.3137354095348</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V23" t="n">
-        <v>1526.86868437219</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W23" t="n">
-        <v>1526.86868437219</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X23" t="n">
-        <v>1526.86868437219</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y23" t="n">
-        <v>1526.86868437219</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,10 +6074,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="C25" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="D25" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E25" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
         <v>106.1122152511379</v>
@@ -6174,25 +6174,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T25" t="n">
-        <v>889.6597230122813</v>
+        <v>631.2473006866899</v>
       </c>
       <c r="U25" t="n">
-        <v>611.2730910610244</v>
+        <v>631.2473006866899</v>
       </c>
       <c r="V25" t="n">
-        <v>324.3175829314549</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="W25" t="n">
-        <v>292.5983062155423</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="X25" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2108.089956131646</v>
+        <v>661.277595467623</v>
       </c>
       <c r="C26" t="n">
-        <v>1669.94748331507</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D26" t="n">
-        <v>1234.037698489514</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E26" t="n">
-        <v>800.2629536478094</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F26" t="n">
-        <v>372.3955240570171</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
         <v>1463.013992431967</v>
@@ -6244,7 +6244,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6256,22 +6256,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U26" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V26" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W26" t="n">
-        <v>2108.089956131646</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X26" t="n">
-        <v>2108.089956131646</v>
+        <v>1495.863289652877</v>
       </c>
       <c r="Y26" t="n">
-        <v>2108.089956131646</v>
+        <v>1087.577165952531</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6311,10 +6311,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2323.157355057091</v>
+        <v>730.9745012407179</v>
       </c>
       <c r="C28" t="n">
-        <v>2150.595643540316</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="D28" t="n">
-        <v>1984.717650741839</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E28" t="n">
-        <v>1814.959646992576</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F28" t="n">
-        <v>1814.959646992576</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G28" t="n">
-        <v>1650.218466605094</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M28" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N28" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S28" t="n">
-        <v>2323.157355057091</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T28" t="n">
-        <v>2323.157355057091</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U28" t="n">
-        <v>2323.157355057091</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V28" t="n">
-        <v>2323.157355057091</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W28" t="n">
-        <v>2323.157355057091</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X28" t="n">
-        <v>2323.157355057091</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y28" t="n">
-        <v>2323.157355057091</v>
+        <v>889.6597230122813</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.2588091910869</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C29" t="n">
-        <v>483.1163363745102</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D29" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6493,22 +6493,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>1698.173566117875</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W29" t="n">
-        <v>1293.318111528908</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X29" t="n">
-        <v>921.2588091910869</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y29" t="n">
-        <v>921.2588091910869</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6548,10 +6548,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
@@ -6584,10 +6584,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1517.87440598441</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="C31" t="n">
-        <v>1517.87440598441</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="D31" t="n">
-        <v>1517.87440598441</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E31" t="n">
-        <v>1517.87440598441</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F31" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G31" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I31" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N31" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T31" t="n">
-        <v>2355.242950478945</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U31" t="n">
-        <v>2076.856318527688</v>
+        <v>369.0258669644309</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.900810398119</v>
+        <v>369.0258669644309</v>
       </c>
       <c r="W31" t="n">
-        <v>1517.87440598441</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="X31" t="n">
-        <v>1517.87440598441</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="Y31" t="n">
-        <v>1517.87440598441</v>
+        <v>356.2576662078826</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
         <v>2043.069798152528</v>
@@ -6730,22 +6730,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W32" t="n">
-        <v>2202.043447044273</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X32" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y32" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6785,10 +6785,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M33" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>577.1450828701352</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C34" t="n">
-        <v>577.1450828701352</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D34" t="n">
-        <v>577.1450828701352</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E34" t="n">
-        <v>407.3870791208724</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895473</v>
@@ -6891,19 +6891,19 @@
         <v>889.6597230122813</v>
       </c>
       <c r="U34" t="n">
-        <v>768.9637015891224</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V34" t="n">
-        <v>768.9637015891224</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W34" t="n">
-        <v>768.9637015891224</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X34" t="n">
-        <v>768.9637015891224</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y34" t="n">
-        <v>768.9637015891224</v>
+        <v>889.6597230122813</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1849.01926465316</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="C35" t="n">
-        <v>1410.876791836584</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D35" t="n">
-        <v>974.9670070110283</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E35" t="n">
-        <v>541.1922621693234</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F35" t="n">
-        <v>541.1922621693234</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G35" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W35" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X35" t="n">
-        <v>1849.01926465316</v>
+        <v>1729.41386249616</v>
       </c>
       <c r="Y35" t="n">
-        <v>1849.01926465316</v>
+        <v>1729.41386249616</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.3175829314549</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C37" t="n">
-        <v>324.3175829314549</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D37" t="n">
-        <v>324.3175829314549</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E37" t="n">
-        <v>324.3175829314549</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F37" t="n">
-        <v>147.6105288932111</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511379</v>
@@ -7125,22 +7125,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T37" t="n">
-        <v>889.6597230122813</v>
+        <v>711.8365956204211</v>
       </c>
       <c r="U37" t="n">
-        <v>611.2730910610244</v>
+        <v>711.8365956204211</v>
       </c>
       <c r="V37" t="n">
-        <v>324.3175829314549</v>
+        <v>711.8365956204211</v>
       </c>
       <c r="W37" t="n">
-        <v>324.3175829314549</v>
+        <v>711.8365956204211</v>
       </c>
       <c r="X37" t="n">
-        <v>324.3175829314549</v>
+        <v>466.4448409538336</v>
       </c>
       <c r="Y37" t="n">
-        <v>324.3175829314549</v>
+        <v>239.0251702679419</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2108.089956131646</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="C38" t="n">
-        <v>1669.947483315069</v>
+        <v>1088.726211555612</v>
       </c>
       <c r="D38" t="n">
-        <v>1234.037698489514</v>
+        <v>652.8164267300567</v>
       </c>
       <c r="E38" t="n">
-        <v>800.2629536478089</v>
+        <v>219.0416818883519</v>
       </c>
       <c r="F38" t="n">
-        <v>372.3955240570166</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
         <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L38" t="n">
         <v>805.440802286702</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U38" t="n">
-        <v>2108.089956131646</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V38" t="n">
-        <v>2108.089956131646</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W38" t="n">
-        <v>2108.089956131646</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X38" t="n">
-        <v>2108.089956131646</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="Y38" t="n">
-        <v>2108.089956131646</v>
+        <v>1526.868684372189</v>
       </c>
     </row>
     <row r="39">
@@ -7235,40 +7235,40 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043098</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668979</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>452.4493496267067</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="C40" t="n">
-        <v>389.7915983856759</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="D40" t="n">
-        <v>223.9136055871985</v>
+        <v>444.801022249451</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895473</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
         <v>202.912315818696</v>
@@ -7359,25 +7359,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T40" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U40" t="n">
-        <v>889.6597230122813</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="V40" t="n">
-        <v>889.6597230122813</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="W40" t="n">
-        <v>889.6597230122813</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="X40" t="n">
-        <v>644.2679683456938</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="Y40" t="n">
-        <v>644.2679683456938</v>
+        <v>610.6790150479284</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1344.758510807007</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
         <v>47.20655154895474</v>
@@ -7408,16 +7408,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J41" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7432,31 +7432,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2168.756428816663</v>
+        <v>2079.254491068495</v>
       </c>
       <c r="V41" t="n">
-        <v>2168.756428816663</v>
+        <v>1716.637541002321</v>
       </c>
       <c r="W41" t="n">
-        <v>1763.900974227697</v>
+        <v>1716.637541002321</v>
       </c>
       <c r="X41" t="n">
-        <v>1344.758510807007</v>
+        <v>1716.637541002321</v>
       </c>
       <c r="Y41" t="n">
-        <v>1344.758510807007</v>
+        <v>1308.351417301975</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765403</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
         <v>79.1492015823585</v>
@@ -7529,13 +7529,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>889.6597230122813</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="C43" t="n">
-        <v>717.0980114955063</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D43" t="n">
-        <v>551.220018697029</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E43" t="n">
-        <v>381.4620149477662</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F43" t="n">
-        <v>381.4620149477662</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
@@ -7596,25 +7596,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S43" t="n">
-        <v>889.6597230122813</v>
+        <v>789.8309525807698</v>
       </c>
       <c r="T43" t="n">
-        <v>889.6597230122813</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="U43" t="n">
-        <v>889.6597230122813</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="V43" t="n">
-        <v>889.6597230122813</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="W43" t="n">
-        <v>889.6597230122813</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="X43" t="n">
-        <v>889.6597230122813</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.6597230122813</v>
+        <v>547.5837284841764</v>
       </c>
     </row>
     <row r="44">
@@ -7645,16 +7645,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7669,7 +7669,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
@@ -7681,19 +7681,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662534</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662534</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X44" t="n">
-        <v>2209.200554108492</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="45">
@@ -7709,13 +7709,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
         <v>79.1492015823585</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.2911785177464</v>
+        <v>662.2400523263896</v>
       </c>
       <c r="C46" t="n">
-        <v>52.2911785177464</v>
+        <v>489.6783408096145</v>
       </c>
       <c r="D46" t="n">
-        <v>52.2911785177464</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E46" t="n">
-        <v>52.2911785177464</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F46" t="n">
-        <v>52.2911785177464</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G46" t="n">
         <v>47.20655154895474</v>
@@ -7809,49 +7809,49 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M46" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N46" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O46" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P46" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q46" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R46" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S46" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T46" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U46" t="n">
-        <v>611.2730910610244</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V46" t="n">
-        <v>324.3175829314549</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W46" t="n">
-        <v>52.2911785177464</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X46" t="n">
-        <v>52.2911785177464</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y46" t="n">
-        <v>52.2911785177464</v>
+        <v>662.2400523263896</v>
       </c>
     </row>
   </sheetData>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>317.1474663742599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>312.4667764348385</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>310.3530868508263</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.1812531179678</v>
+        <v>74.1812531179677</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
@@ -23080,16 +23080,16 @@
         <v>256.599767943293</v>
       </c>
       <c r="V8" t="n">
-        <v>239.9068700230517</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>281.722989500617</v>
+        <v>295.917791637277</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440224</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>285.1193519208817</v>
       </c>
     </row>
     <row r="9">
@@ -23105,19 +23105,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>34.3024337354529</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.3603752680919</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656966</v>
+        <v>59.05530966656962</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>55.4759336551881</v>
+        <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221616059</v>
+        <v>84.57387664843154</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>64.38561618167653</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -23199,7 +23199,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742793</v>
+        <v>82.66219243742788</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616412</v>
+        <v>13.56162857616403</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
@@ -23235,13 +23235,13 @@
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6394002001954</v>
+        <v>156.555489657734</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058138</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>223.2509922063388</v>
+        <v>223.2509922063383</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>274.5202480989909</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>230.6267242450822</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -23323,10 +23323,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>127.1682198496595</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>226.8340996994737</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -23478,7 +23478,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>80.39320263273066</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>13.42442768340396</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>105.3752416127639</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>212.0621342692683</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7802981216704</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>256.3958317637488</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>161.9888559635265</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>225.3159556935503</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>50.02147428280921</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>221.6333613121576</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1837529440684</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>163.1143002504122</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -24192,10 +24192,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>62.97822391955441</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24274,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>294.6492154448417</v>
       </c>
     </row>
     <row r="24">
@@ -24378,10 +24378,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>126.9787268640997</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>237.9040564208179</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>257.3814015862293</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>73.57058162433583</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -24505,13 +24505,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>32.80206297794945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>106.1837529440684</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -24682,10 +24682,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -24694,10 +24694,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>46.61232947203973</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>42.73835744761504</v>
       </c>
     </row>
     <row r="30">
@@ -24849,13 +24849,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24891,16 +24891,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>234.7909711565236</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>256.6656216205886</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>60.03778590972664</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
@@ -24979,10 +24979,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>244.1056109436484</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>33.92750726483524</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>156.1137044228171</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>284.4950723568829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>173.4861468346813</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25219,7 +25219,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -25323,10 +25323,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>63.69383101279301</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25365,22 +25365,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>63.77985573768581</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>253.4719762588811</v>
       </c>
       <c r="G38" t="n">
-        <v>73.57058162433628</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>108.8049206729868</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>142.3941378578428</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -25614,7 +25614,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -25633,7 +25633,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>66.82454741893812</v>
+        <v>227.9328741511809</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>25.66581353137508</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>44.1517903836114</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>83.88014333065217</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>305.3969917679806</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,19 +26025,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>64.20589358390751</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>158.059987884503</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
@@ -26079,19 +26079,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>69185.40225968628</v>
+        <v>69185.40225968706</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>342573.7911158041</v>
+        <v>342573.7911158039</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>342573.7911158041</v>
+        <v>342573.7911158039</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>342573.7911158041</v>
+        <v>342573.7911158039</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>342573.7911158041</v>
+        <v>342573.7911158039</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>342573.791115804</v>
+        <v>342573.7911158039</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>342573.7911158041</v>
+        <v>342573.791115804</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>342573.7911158039</v>
+        <v>342573.7911158041</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>342573.7911158041</v>
+        <v>342573.7911158039</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>342573.7911158039</v>
+        <v>342573.791115804</v>
       </c>
     </row>
   </sheetData>
@@ -26319,40 +26319,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>29650.88668272268</v>
+        <v>29650.88668272303</v>
       </c>
       <c r="E2" t="n">
-        <v>146817.3390496303</v>
+        <v>146817.3390496302</v>
       </c>
       <c r="F2" t="n">
         <v>146817.3390496303</v>
       </c>
       <c r="G2" t="n">
-        <v>146817.3390496303</v>
+        <v>146817.3390496302</v>
       </c>
       <c r="H2" t="n">
-        <v>146817.3390496303</v>
+        <v>146817.3390496302</v>
       </c>
       <c r="I2" t="n">
-        <v>146817.3390496303</v>
+        <v>146817.3390496302</v>
       </c>
       <c r="J2" t="n">
-        <v>146817.3390496303</v>
+        <v>146817.3390496302</v>
       </c>
       <c r="K2" t="n">
         <v>146817.3390496303</v>
       </c>
       <c r="L2" t="n">
-        <v>146817.3390496302</v>
+        <v>146817.3390496303</v>
       </c>
       <c r="M2" t="n">
         <v>146817.3390496303</v>
       </c>
       <c r="N2" t="n">
+        <v>146817.3390496302</v>
+      </c>
+      <c r="O2" t="n">
         <v>146817.3390496303</v>
-      </c>
-      <c r="O2" t="n">
-        <v>146817.3390496302</v>
       </c>
       <c r="P2" t="n">
         <v>146817.3390496303</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.467573057</v>
+        <v>117708.4675730584</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.245018045</v>
+        <v>439858.2450180436</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310173</v>
+        <v>30139.0660031021</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597483</v>
+        <v>117374.5815597479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>83.50572484016249</v>
+        <v>83.50572484016344</v>
       </c>
       <c r="E4" t="n">
+        <v>414.2905444231688</v>
+      </c>
+      <c r="F4" t="n">
         <v>414.2905444231689</v>
       </c>
-      <c r="F4" t="n">
-        <v>414.290544423169</v>
-      </c>
       <c r="G4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="H4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="I4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="J4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="K4" t="n">
         <v>414.2905444231689</v>
@@ -26450,13 +26450,13 @@
         <v>414.2905444231689</v>
       </c>
       <c r="M4" t="n">
+        <v>414.2905444231689</v>
+      </c>
+      <c r="N4" t="n">
+        <v>414.2905444231689</v>
+      </c>
+      <c r="O4" t="n">
         <v>414.290544423169</v>
-      </c>
-      <c r="N4" t="n">
-        <v>414.290544423169</v>
-      </c>
-      <c r="O4" t="n">
-        <v>414.2905444231689</v>
       </c>
       <c r="P4" t="n">
         <v>414.2905444231689</v>
@@ -26475,34 +26475,34 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.5622723923</v>
+        <v>42922.5622723924</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-131063.6488875668</v>
+        <v>-132262.8224888048</v>
       </c>
       <c r="E6" t="n">
-        <v>-339506.2777224757</v>
+        <v>-340147.5158362497</v>
       </c>
       <c r="F6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179391</v>
       </c>
       <c r="G6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179388</v>
       </c>
       <c r="H6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179385</v>
       </c>
       <c r="I6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179388</v>
       </c>
       <c r="J6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179385</v>
       </c>
       <c r="K6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179394</v>
       </c>
       <c r="L6" t="n">
-        <v>70212.90129246753</v>
+        <v>69571.6631786918</v>
       </c>
       <c r="M6" t="n">
-        <v>-17022.61426417896</v>
+        <v>-17663.85237795395</v>
       </c>
       <c r="N6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.72918179388</v>
       </c>
       <c r="O6" t="n">
-        <v>100351.9672955692</v>
+        <v>99710.72918179393</v>
       </c>
       <c r="P6" t="n">
-        <v>100351.9672955693</v>
+        <v>99710.7291817939</v>
       </c>
     </row>
   </sheetData>
@@ -26743,34 +26743,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480406</v>
+        <v>94.25048217480514</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
         <v>466.7019280932211</v>
@@ -26795,37 +26795,37 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480406</v>
+        <v>94.25048217480514</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184171</v>
+        <v>372.4514459184159</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194742</v>
+        <v>470.9979838194726</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424599</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194743</v>
+        <v>470.9979838194726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194742</v>
+        <v>470.9979838194726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529809</v>
+        <v>0.3788964107529852</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623966</v>
+        <v>3.880372866624011</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555431</v>
+        <v>14.60740387555448</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214584</v>
+        <v>32.15835924214621</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931953</v>
+        <v>48.19704430932008</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990108</v>
+        <v>59.79269533990176</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462941</v>
+        <v>66.53089438463016</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168132</v>
+        <v>67.60743381168209</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725635</v>
+        <v>63.83978262725709</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679213</v>
+        <v>54.48577748679276</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670099</v>
+        <v>40.91654977670146</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196196</v>
+        <v>23.80085166196223</v>
       </c>
       <c r="S8" t="n">
-        <v>8.63410196003356</v>
+        <v>8.634101960033659</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071175</v>
+        <v>1.658619038071194</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023846</v>
+        <v>0.03031171286023881</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250503</v>
+        <v>0.2027274522250526</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857723</v>
+        <v>1.957920393857745</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888792</v>
+        <v>6.979870613888872</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780618</v>
+        <v>19.1532984578064</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688454</v>
+        <v>32.73603775688492</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211015</v>
+        <v>44.01764264211065</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526821</v>
+        <v>51.3665127852688</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286516</v>
+        <v>52.72603153286576</v>
       </c>
       <c r="O9" t="n">
-        <v>48.2340179861943</v>
+        <v>48.23401798619486</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006245</v>
+        <v>38.7120518200629</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542922</v>
+        <v>25.87798144542952</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779742</v>
+        <v>12.58688514779757</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531084</v>
+        <v>3.765573509531128</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457066</v>
+        <v>0.817133897345716</v>
       </c>
       <c r="U9" t="n">
-        <v>0.013337332383227</v>
+        <v>0.01333733238322715</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889909</v>
+        <v>0.1699598858889929</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540302</v>
+        <v>1.51109789454032</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643474</v>
+        <v>5.111157295643532</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235166</v>
+        <v>12.01616393235179</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055731</v>
+        <v>19.74624856055753</v>
       </c>
       <c r="L10" t="n">
-        <v>25.2683997620778</v>
+        <v>25.26839976207809</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803518</v>
+        <v>26.64198465803549</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063078</v>
+        <v>26.00849781063108</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547302</v>
+        <v>24.02305732547329</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333758</v>
+        <v>20.55587565333782</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839541</v>
+        <v>14.23182280839558</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517717</v>
+        <v>7.642014505517804</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083595</v>
+        <v>2.961937284083629</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075065</v>
+        <v>0.7261922397075148</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308607</v>
+        <v>0.009270539230308713</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699081</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32168,28 +32168,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184531</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32560,28 +32560,28 @@
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,19 +33256,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -33280,22 +33280,22 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,19 +33362,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -34380,7 +34380,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,10 +34441,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -34453,7 +34453,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -34471,16 +34471,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,10 +34547,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417549</v>
@@ -34559,7 +34559,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642291</v>
+        <v>14.19478239642308</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214584</v>
+        <v>32.15835924214616</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931953</v>
+        <v>48.19704430932009</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990109</v>
+        <v>59.79269533990174</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462942</v>
+        <v>66.53089438463016</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168132</v>
+        <v>67.60743381168209</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725634</v>
+        <v>63.83978262725714</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679213</v>
+        <v>54.48577748679276</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.916549776701</v>
+        <v>40.91654977670146</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196193</v>
+        <v>23.80085166196221</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888792</v>
+        <v>6.979870613888872</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780617</v>
+        <v>19.1532984578064</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688454</v>
+        <v>32.73603775688493</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211015</v>
+        <v>44.01764264211064</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852682</v>
+        <v>51.36651278526878</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286516</v>
+        <v>52.72603153286576</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619429</v>
+        <v>48.23401798619483</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006247</v>
+        <v>38.71205182006292</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542921</v>
+        <v>25.8779814454295</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779743</v>
+        <v>12.58688514779755</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235166</v>
+        <v>12.01616393235179</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055731</v>
+        <v>19.74624856055753</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207779</v>
+        <v>25.26839976207809</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803518</v>
+        <v>26.64198465803548</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063079</v>
+        <v>26.00849781063108</v>
       </c>
       <c r="O10" t="n">
-        <v>24.023057325473</v>
+        <v>24.02305732547329</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333758</v>
+        <v>20.55587565333781</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839541</v>
+        <v>14.23182280839558</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,13 +35427,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
@@ -35512,7 +35512,7 @@
         <v>128.1404992002367</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048099</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785941</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35655,16 +35655,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116988</v>
@@ -35819,16 +35819,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35901,10 +35901,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184531</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562351</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35977,10 +35977,10 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36135,13 +36135,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36208,7 +36208,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36518,7 +36518,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,10 +36609,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548414</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766673</v>
@@ -37083,10 +37083,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37159,7 +37159,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37466,7 +37466,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -37542,13 +37542,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37557,10 +37557,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916793</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562314</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37639,7 +37639,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37703,7 +37703,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -37782,28 +37782,28 @@
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766677</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -38016,16 +38016,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38034,13 +38034,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
